--- a/biology/Zoologie/Batara_perlé/Batara_perlé.xlsx
+++ b/biology/Zoologie/Batara_perlé/Batara_perlé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Batara_perl%C3%A9</t>
+          <t>Batara_perlé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Megastictus margaritatus
 Le Batara perlé (Megastictus margaritatus), unique représentant du genre Megastictus, est une espèce d'oiseau de la famille des Thamnophilidae qui vit en Amazonie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Batara_perl%C3%A9</t>
+          <t>Batara_perlé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Megastictus margaritatus a été décrite pour la première fois en 1855 par le zoologiste britannique Philip Lutley Sclater (1829-1913) sous le protonyme de Myrmeciza margaritata[1],[2].
-En 1909, l'ornithologue américain Robert Ridgway (1850-1929) crée spécialement le genre Megastictus pour l'y reclasser[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Megastictus margaritatus a été décrite pour la première fois en 1855 par le zoologiste britannique Philip Lutley Sclater (1829-1913) sous le protonyme de Myrmeciza margaritata,.
+En 1909, l'ornithologue américain Robert Ridgway (1850-1929) crée spécialement le genre Megastictus pour l'y reclasser.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Batara_perl%C3%A9</t>
+          <t>Batara_perlé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Megastictus, dérive du grec ancien μέγας, mégas, « grand », et στίχος, stíkhos, « ligne, rangée »[3] et fait probablement[4] référence aux nombreuses taches sur ses ailes.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Megastictus, dérive du grec ancien μέγας, mégas, « grand », et στίχος, stíkhos, « ligne, rangée » et fait probablement référence aux nombreuses taches sur ses ailes.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Batara_perl%C3%A9</t>
+          <t>Batara_perlé</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Espèce Megastictus margaritatus sous le taxon Myrmeciza margaritata :
 (en) Philip Lutley Sclater, « Descriptions of Six New Species of Birds of the Sub-Family Formicarinæ », Proceedings of the Zoological Society of London, Londres, ZSL, vol. 22, no 1,‎ 1855, p. 253-255 (ISSN 0370-2774, OCLC 1779524, BNF 32843178, DOI 10.1111/J.1469-7998.1854.TB07273.X, lire en ligne)
